--- a/12/Data/red.xlsx
+++ b/12/Data/red.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6a74b15c80f35c5/Documents/GitHub/IIPF/12/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B27BE7-9D9F-4BD3-83DF-C28D4A3C8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{F1B27BE7-9D9F-4BD3-83DF-C28D4A3C8FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A891902B-89E0-4CEA-A60C-331B062FDBD5}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="20177" xr2:uid="{7135B611-C53E-4BAC-8705-D2B81DCEDFA5}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{7135B611-C53E-4BAC-8705-D2B81DCEDFA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -382,42 +382,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{891AB33F-FAAD-4006-9D39-264B3C3A3BFD}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B1" sqref="B1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0.23300000000000001</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.872</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>0.1875</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1.167</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1.5389999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1.738</v>
+      </c>
+      <c r="B6">
+        <v>0.375</v>
       </c>
     </row>
   </sheetData>
